--- a/Cephei.XL/BondSingle.xlsx
+++ b/Cephei.XL/BondSingle.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\source\repos\Cephei2\Cephei.XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D1EEF6-90B6-41BA-A828-DB3E5F7B9333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A13110-B5B1-4318-81B6-F7FA3039BB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="191" xr2:uid="{705D3C02-4429-4AA3-825B-DA6B36A5FD08}"/>
+    <workbookView xWindow="20" yWindow="120" windowWidth="38380" windowHeight="20880" tabRatio="191" xr2:uid="{705D3C02-4429-4AA3-825B-DA6B36A5FD08}"/>
   </bookViews>
   <sheets>
     <sheet name="BondSimple" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Yields">Table3[#All]</definedName>
@@ -443,7 +444,168 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
+      <tp t="s">
+        <v>FlatYield2</v>
+        <stp/>
+        <stp>FlatYield2</stp>
+        <stp>-984179504</stp>
+        <tr r="C30" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FreqA</v>
+        <stp/>
+        <stp>FreqA</stp>
+        <stp>1</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FlatYield1</v>
+        <stp/>
+        <stp>FlatYield1</stp>
+        <stp>-790258016</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
+      <tp t="s">
+        <v>FlatYield4</v>
+        <stp/>
+        <stp>FlatYield4</stp>
+        <stp>-451442464</stp>
+        <tr r="C32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
+      <tp t="s">
+        <v>clean1</v>
+        <stp/>
+        <stp>clean1</stp>
+        <stp>652988539</stp>
+        <tr r="S2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>FreqS</v>
+        <stp/>
+        <stp>FreqS</stp>
+        <stp>2</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
+      <tp t="s">
+        <v>Today</v>
+        <stp/>
+        <stp>Today</stp>
+        <stp>0</stp>
+        <tr r="B1" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>EngineFlatYield4</v>
+        <stp/>
+        <stp>EngineFlatYield4</stp>
+        <stp>1487502897</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>EngineFlatYield2</v>
+        <stp/>
+        <stp>EngineFlatYield2</stp>
+        <stp>1487502897</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>EngineFlatYield3</v>
+        <stp/>
+        <stp>EngineFlatYield3</stp>
+        <stp>1487502897</stp>
+        <tr r="C37" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>EngineFlatYield1</v>
+        <stp/>
+        <stp>EngineFlatYield1</stp>
+        <stp>1487502897</stp>
+        <tr r="C35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
+      <tp t="s">
+        <v>+Yield4</v>
+        <stp/>
+        <stp>+Yield4</stp>
+        <stp>-735336727</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+Yield1</v>
+        <stp/>
+        <stp>+Yield1</stp>
+        <stp>-736385303</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>+Yield2</v>
+        <stp/>
+        <stp>+Yield2</stp>
+        <stp>2013949594</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.69edc8ed7d6b492e8061b1a1f5ecf4da">
+      <tp>
+        <v>44122</v>
+        <stp/>
+        <stp>Today</stp>
+        <stp/>
+        <tr r="C1" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
+      <tp t="s">
+        <v>clock</v>
+        <stp/>
+        <stp>clock</stp>
+        <stp>44122</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>settlement</v>
+        <stp/>
+        <stp>settlement</stp>
+        <stp>3</stp>
+        <tr r="B7" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Fac1</v>
+        <stp/>
+        <stp>Fac1</stp>
+        <stp>1083129856</stp>
+        <tr r="K2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>calendar</v>
+        <stp/>
+        <stp>calendar</stp>
+        <stp>0</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>priceday</v>
+        <stp/>
+        <stp>priceday</stp>
+        <stp>172668224</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Fac2</v>
+        <stp/>
+        <stp>Fac2</stp>
+        <stp>1080623104</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
       <tp t="s">
         <v>exCoupon</v>
         <stp/>
@@ -452,41 +614,49 @@
         <tr r="B6" s="1"/>
       </tp>
       <tp t="s">
-        <v>Mat5</v>
+        <v>Mat5FreqA</v>
         <stp/>
-        <stp>Mat5</stp>
-        <stp>-1245428976</stp>
-        <tr r="C16" s="1"/>
+        <stp>Mat5FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C47" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat4FreqA</v>
+        <stp/>
+        <stp>Mat4FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C46" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat1FreqA</v>
+        <stp/>
+        <stp>Mat1FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat3FreqA</v>
+        <stp/>
+        <stp>Mat3FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C45" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat2FreqA</v>
+        <stp/>
+        <stp>Mat2FreqA</stp>
+        <stp>1773563034</stp>
+        <tr r="C44" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
+    <main first="rtdsrv.69edc8ed7d6b492e8061b1a1f5ecf4da">
       <tp t="s">
-        <v>Mat3</v>
+        <v>#NotValue</v>
         <stp/>
-        <stp>Mat3</stp>
-        <stp>-1245338864</stp>
-        <tr r="C14" s="1"/>
+        <stp>clean2</stp>
+        <stp/>
+        <tr r="T3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>+coupons</v>
-        <stp/>
-        <stp>+coupons</stp>
-        <stp>561312938</stp>
-        <tr r="B54" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>Mat1</v>
-        <stp/>
-        <stp>Mat1</stp>
-        <stp>-1245367536</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e0f25a36ef244bc09dcddcfdf1a301ea">
       <tp>
         <v>109.77267549438112</v>
         <stp/>
@@ -495,129 +665,49 @@
         <tr r="T2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
       <tp t="s">
-        <v>Mat4</v>
+        <v>Mat4FreqS</v>
         <stp/>
-        <stp>Mat4</stp>
-        <stp>-1245318384</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>Mat2</v>
-        <stp/>
-        <stp>Mat2</stp>
-        <stp>-1245359344</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>FreqA</v>
-        <stp/>
-        <stp>FreqA</stp>
-        <stp>1</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>calendar</v>
-        <stp/>
-        <stp>calendar</stp>
-        <stp>0</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>FreqS</v>
-        <stp/>
-        <stp>FreqS</stp>
-        <stp>2</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>clean1</v>
-        <stp/>
-        <stp>clean1</stp>
-        <stp>652988539</stp>
-        <tr r="S2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>priceday</v>
-        <stp/>
-        <stp>priceday</stp>
-        <stp>172668224</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>clock</v>
-        <stp/>
-        <stp>clock</stp>
-        <stp>-367521373</stp>
-        <tr r="B2" s="1"/>
+        <stp>Mat4FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D46" s="1"/>
       </tp>
       <tp t="s">
-        <v>Today</v>
+        <v>Mat5FreqS</v>
         <stp/>
-        <stp>Today</stp>
-        <stp>0</stp>
-        <tr r="B1" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>EngineFlatYield2</v>
-        <stp/>
-        <stp>EngineFlatYield2</stp>
-        <stp>-976022335</stp>
-        <tr r="C36" s="1"/>
+        <stp>Mat5FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D47" s="1"/>
       </tp>
       <tp t="s">
-        <v>EngineFlatYield1</v>
+        <v>Mat2FreqS</v>
         <stp/>
-        <stp>EngineFlatYield1</stp>
-        <stp>-263561615</stp>
-        <tr r="C35" s="1"/>
+        <stp>Mat2FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D44" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
       <tp t="s">
-        <v>EngineFlatYield4</v>
+        <v>Mat3FreqS</v>
         <stp/>
-        <stp>EngineFlatYield4</stp>
-        <stp>1894023521</stp>
-        <tr r="C38" s="1"/>
+        <stp>Mat3FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D45" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
       <tp t="s">
-        <v>settlement</v>
+        <v>Mat1FreqS</v>
         <stp/>
-        <stp>settlement</stp>
-        <stp>3</stp>
-        <tr r="B7" s="1"/>
+        <stp>Mat1FreqS</stp>
+        <stp>162950298</stp>
+        <tr r="D43" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e0f25a36ef244bc09dcddcfdf1a301ea">
-      <tp>
-        <v>44115</v>
+      <tp t="s">
+        <v>+coupons</v>
         <stp/>
-        <stp>Today</stp>
-        <stp/>
-        <tr r="C1" s="1"/>
+        <stp>+coupons</stp>
+        <stp>561312938</stp>
+        <tr r="B54" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
       <tp t="s">
         <v>dayCount</v>
         <stp/>
@@ -625,141 +715,64 @@
         <stp>920816757</stp>
         <tr r="B5" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
       <tp t="s">
-        <v>Fac1</v>
+        <v>Mat3</v>
         <stp/>
-        <stp>Fac1</stp>
-        <stp>1083129856</stp>
-        <tr r="K2" s="1"/>
+        <stp>Mat3</stp>
+        <stp>239182608</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat4</v>
+        <stp/>
+        <stp>Mat4</stp>
+        <stp>239203088</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat5</v>
+        <stp/>
+        <stp>Mat5</stp>
+        <stp>239092496</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>-Bond2</v>
+        <stp/>
+        <stp>-Bond2</stp>
+        <stp>1715413937</stp>
+        <tr r="R3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>clean2</v>
+        <stp/>
+        <stp>clean2</stp>
+        <stp>1056273066</stp>
+        <tr r="S3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Mat2</v>
+        <stp/>
+        <stp>Mat2</stp>
+        <stp>239162128</stp>
+        <tr r="C13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>-Bond1</v>
-        <stp/>
-        <stp>-Bond1</stp>
-        <stp>-1912612715</stp>
-        <tr r="R2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
       <tp t="s">
         <v>FlatYield3</v>
         <stp/>
         <stp>FlatYield3</stp>
-        <stp>2099362983</stp>
+        <stp>-1059442240</stp>
         <tr r="C31" s="1"/>
       </tp>
       <tp t="s">
-        <v>FlatYield1</v>
+        <v>Mat1</v>
         <stp/>
-        <stp>FlatYield1</stp>
-        <stp>2099362951</stp>
-        <tr r="C29" s="1"/>
+        <stp>Mat1</stp>
+        <stp>239153936</stp>
+        <tr r="C12" s="1"/>
       </tp>
-      <tp t="s">
-        <v>FlatYield2</v>
-        <stp/>
-        <stp>FlatYield2</stp>
-        <stp>2099362967</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>FlatYield4</v>
-        <stp/>
-        <stp>FlatYield4</stp>
-        <stp>2099363127</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>Mat5FreqS</v>
-        <stp/>
-        <stp>Mat5FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D47" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat4FreqS</v>
-        <stp/>
-        <stp>Mat4FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D46" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat3FreqS</v>
-        <stp/>
-        <stp>Mat3FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat2FreqS</v>
-        <stp/>
-        <stp>Mat2FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D44" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat1FreqS</v>
-        <stp/>
-        <stp>Mat1FreqS</stp>
-        <stp>-776573798</stp>
-        <tr r="D43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>Mat3FreqA</v>
-        <stp/>
-        <stp>Mat3FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C45" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat2FreqA</v>
-        <stp/>
-        <stp>Mat2FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat1FreqA</v>
-        <stp/>
-        <stp>Mat1FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat5FreqA</v>
-        <stp/>
-        <stp>Mat5FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C47" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Mat4FreqA</v>
-        <stp/>
-        <stp>Mat4FreqA</stp>
-        <stp>-1313444710</stp>
-        <tr r="C46" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>+Yield2</v>
-        <stp/>
-        <stp>+Yield2</stp>
-        <stp>2013949594</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
       <tp t="s">
         <v>+Yield3</v>
         <stp/>
@@ -767,30 +780,14 @@
         <stp>-1506803709</stp>
         <tr r="C25" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f8eaa2cc749749ea8abc2576d8241394">
       <tp t="s">
-        <v>+Yield1</v>
+        <v>-Bond1</v>
         <stp/>
-        <stp>+Yield1</stp>
-        <stp>-736385303</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>+Yield4</v>
-        <stp/>
-        <stp>+Yield4</stp>
-        <stp>-735336727</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e57d612e54e34ab5ba890991869f401e">
-      <tp t="s">
-        <v>EngineFlatYield3</v>
-        <stp/>
-        <stp>EngineFlatYield3</stp>
-        <stp>-1688483055</stp>
-        <tr r="C37" s="1"/>
+        <stp>-Bond1</stp>
+        <stp>2021618481</stp>
+        <tr r="R2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1197,8 +1194,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1220,7 +1217,7 @@
       </c>
       <c r="C1" s="11">
         <f>+_xll._Value(B1)</f>
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -1342,20 +1339,51 @@
         <v>1</v>
       </c>
       <c r="I3" s="9">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J3" s="4">
-        <v>100</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f>+_xll._Double($K$1&amp;E3,J3)</f>
+        <v>Fac2</v>
+      </c>
+      <c r="L3" t="str">
+        <f>VLOOKUP(F3,Table1[],2,TRUE)</f>
+        <v>Mat2</v>
+      </c>
+      <c r="M3" t="str">
+        <f>VLOOKUP(H3,Table2[],2,TRUE)</f>
+        <v>FreqS</v>
+      </c>
+      <c r="N3" t="str">
+        <f>VLOOKUP(I3,Table3[],2,TRUE)</f>
+        <v>+Yield2</v>
+      </c>
+      <c r="O3" t="str">
+        <f>VLOOKUP(N3,Table4[],2,TRUE)</f>
+        <v>FlatYield2</v>
+      </c>
+      <c r="P3" t="str">
+        <f>VLOOKUP(O3,Table5[],2,TRUE)</f>
+        <v>EngineFlatYield2</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>L3&amp;M3</f>
+        <v>Mat2FreqS</v>
+      </c>
+      <c r="R3" t="str">
+        <f>+_xll._FixedRateBond($R$1&amp;E3,$B$7,K3,Q3,$B$54,$B$5,"ModifiedFollowing",K3,$B$4,$B$3,$B$6,$B$3,"Following",FALSE,P3,$B$4)</f>
+        <v>-Bond2</v>
+      </c>
+      <c r="S3" t="str">
+        <f>+_xll._FixedRateBond_cleanPrice($S$1&amp;E3,R3)</f>
+        <v>clean2</v>
+      </c>
+      <c r="T3" t="str">
+        <f>+_xll._Value(S3)</f>
+        <v>198.206061378853</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
@@ -4469,4 +4497,5879 @@
     <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173E461A-AE10-43A5-B91E-1D8591392319}">
+  <dimension ref="A1:AJ53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="87.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="59.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="59.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="53.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="57.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="51.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="53.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="57.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f t="array" ref="A1:AJ53">+_xll._dependencies()</f>
+        <v>Mat3/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/55683007</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Mat3FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/44115416</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Mat3FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/64554036</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <v>EngineFlatYield1/Cephei.QL.DiscountingBondEngineModel/34678979</v>
+      </c>
+      <c r="B2" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="C2" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="D2" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="E2" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="F2" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <v>-Bond2/Cephei.QL.FixedRateBondModel/23038295</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/17324607</v>
+      </c>
+      <c r="C3" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/9381496</v>
+      </c>
+      <c r="D3" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/30868550</v>
+      </c>
+      <c r="E3" t="str">
+        <v>clean2/Cephei.Cell.Generic.CellFast`1[System.Double]/3429838</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <v>Mat4FreqS/Cephei.QL.ScheduleModel/6480969</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <v>Mat1FreqS/Cephei.QL.ScheduleModel/64109423</v>
+      </c>
+      <c r="B5" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="C5" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="D5" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <v>clean1/Cephei.Cell.Generic.CellFast`1[System.Double]/58328727</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <v>+Yield3/Cephei.QL.SimpleQuoteModel1/11404313</v>
+      </c>
+      <c r="B7" t="str">
+        <v>FlatYield3/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/55196503</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <v>+Yield2/Cephei.QL.SimpleQuoteModel1/5773521</v>
+      </c>
+      <c r="B8" t="str">
+        <v>FlatYield2/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/27006480</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <v>Mat4FreqA/Cephei.QL.ScheduleModel/41731733</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <v>+Yield1/Cephei.QL.SimpleQuoteModel1/50492551</v>
+      </c>
+      <c r="B10" t="str">
+        <v>FlatYield1/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/40041277</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <v>Mat1FreqA/Cephei.QL.ScheduleModel/24827179</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <v>+Yield4/Cephei.QL.SimpleQuoteModel1/42715336</v>
+      </c>
+      <c r="B12" t="str">
+        <v>FlatYield4/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/22118023</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <v>EngineFlatYield2/Cephei.QL.DiscountingBondEngineModel/6451435</v>
+      </c>
+      <c r="B13" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C13" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="D13" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <v>Mat4/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/43205102</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Mat4FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/46729429</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Mat4FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/64844482</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <v>Mat1/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/37489757</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Mat1FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/26987408</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Mat1FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/17911681</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <v>+coupons/Cephei.Cell.Generic.CellFast`1[System.Collections.Generic.List`1[System.Double]]/16868352</v>
+      </c>
+      <c r="B16" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C16" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D16" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="E16" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="F16" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="G16" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="H16" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="I16" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <v>-Bond1/Cephei.QL.FixedRateBondModel/16754362</v>
+      </c>
+      <c r="B17" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/10923418</v>
+      </c>
+      <c r="C17" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/38496415</v>
+      </c>
+      <c r="D17" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/41560081</v>
+      </c>
+      <c r="E17" t="str">
+        <v>clean1/Cephei.Cell.Generic.CellFast`1[System.Double]/58328727</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <v>settlement/Cephei.Cell.Generic.CellFast`1[System.Int32]/66166301</v>
+      </c>
+      <c r="B18" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C18" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D18" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="E18" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="F18" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="G18" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="H18" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="I18" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <v>clean2/Cephei.Cell.Generic.CellFast`1[System.Double]/3429838</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <v>FlatYield4/Cephei.QL.FlatForwardModel/31201899</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <v>EngineFlatYield3/Cephei.QL.DiscountingBondEngineModel/12381635</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <v>EngineFlatYield4/Cephei.QL.DiscountingBondEngineModel/44325851</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <v>Mat2FreqS/Cephei.QL.ScheduleModel/39774547</v>
+      </c>
+      <c r="B23" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C23" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D23" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="E23" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="F23" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <v>Mat2/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/20706689</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mat2FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/33624151</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Mat2FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/63388340</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <v>Mat5/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/35567111</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Mat5FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/39201736</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Mat5FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/34181910</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <v>priceday/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/25474675</v>
+      </c>
+      <c r="B26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/60332585</v>
+      </c>
+      <c r="C26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/51442863</v>
+      </c>
+      <c r="D26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/13172414</v>
+      </c>
+      <c r="E26" t="str">
+        <v>CleanPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/61115925</v>
+      </c>
+      <c r="F26" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="G26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/17324607</v>
+      </c>
+      <c r="H26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/9381496</v>
+      </c>
+      <c r="I26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/30868550</v>
+      </c>
+      <c r="J26" t="str">
+        <v>clean2/Cephei.Cell.Generic.CellFast`1[System.Double]/3429838</v>
+      </c>
+      <c r="K26" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="L26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/7658356</v>
+      </c>
+      <c r="M26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/53046711</v>
+      </c>
+      <c r="N26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/5894079</v>
+      </c>
+      <c r="O26" t="str">
+        <v>CleanPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/654897</v>
+      </c>
+      <c r="P26" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/72766</v>
+      </c>
+      <c r="R26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/52203868</v>
+      </c>
+      <c r="S26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/13256970</v>
+      </c>
+      <c r="T26" t="str">
+        <v>CleanPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/46212239</v>
+      </c>
+      <c r="U26" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="V26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/27504314</v>
+      </c>
+      <c r="W26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/3056034</v>
+      </c>
+      <c r="X26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/339559</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>CleanPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/37320431</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/41429416</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/56799051</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/21224086</v>
+      </c>
+      <c r="AD26" t="str">
+        <v>CleanPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/17271312</v>
+      </c>
+      <c r="AE26" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="AF26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/720107</v>
+      </c>
+      <c r="AG26" t="str">
+        <v>NPV/Cephei.Cell.Generic.CellFast`1[System.Double]/10923418</v>
+      </c>
+      <c r="AH26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/38496415</v>
+      </c>
+      <c r="AI26" t="str">
+        <v>CASH/Cephei.Cell.Generic.CellFast`1[System.Double]/14993092</v>
+      </c>
+      <c r="AJ26" t="str">
+        <v>DirtyPrice/Cephei.Cell.Generic.CellFast`1[System.Double]/41560081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <v>exCoupon/Cephei.QL.PeriodModel1/13009416</v>
+      </c>
+      <c r="B27" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C27" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D27" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="E27" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="F27" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="G27" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="H27" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="I27" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <v>Mat2FreqA/Cephei.QL.ScheduleModel/1816341</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <v>FreqA/Cephei.QL.PeriodModel2/4916187</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Mat3FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/64554036</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Mat2FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/33624151</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Mat4FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/46729429</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Mat1FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/17911681</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Mat5FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/39201736</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <v>FlatYield1/Cephei.QL.FlatForwardModel/16347077</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <v>Mat5FreqS/Cephei.QL.ScheduleModel/12905972</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <v>FreqS/Cephei.QL.PeriodModel2/65066874</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Mat1FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/26987408</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Mat3FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/44115416</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Mat2FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/63388340</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Mat4FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/64844482</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Mat5FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/34181910</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <v>Today/Cephei.XL.Today/59817589</v>
+      </c>
+      <c r="B33" t="str">
+        <v>clock/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/49044892</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <v>FlatYield2/Cephei.QL.FlatForwardModel/38750844</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <v>Mat5FreqA/Cephei.QL.ScheduleModel/13213278</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <v>clock/Cephei.QL.DateModel1/36181605</v>
+      </c>
+      <c r="B36" t="str">
+        <v>priceday/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/25474675</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <v>calendar/Cephei.QL.TARGETModel/39086322</v>
+      </c>
+      <c r="B37" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C37" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D37" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="E37" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="F37" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="G37" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="H37" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="I37" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Mat1FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/26987408</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Mat3FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/44115416</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Mat3FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/64554036</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Mat2FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/33624151</v>
+      </c>
+      <c r="N37" t="str">
+        <v>Mat2FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/63388340</v>
+      </c>
+      <c r="O37" t="str">
+        <v>Mat4FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/46729429</v>
+      </c>
+      <c r="P37" t="str">
+        <v>Mat4FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/64844482</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Mat1FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/17911681</v>
+      </c>
+      <c r="R37" t="str">
+        <v>Mat3/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/55683007</v>
+      </c>
+      <c r="S37" t="str">
+        <v>Mat1/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/37489757</v>
+      </c>
+      <c r="T37" t="str">
+        <v>Mat2/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/20706689</v>
+      </c>
+      <c r="U37" t="str">
+        <v>Mat4/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/43205102</v>
+      </c>
+      <c r="V37" t="str">
+        <v>Mat5FreqA/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/39201736</v>
+      </c>
+      <c r="W37" t="str">
+        <v>Mat5FreqS/Cephei.Cell.Generic.CellFast`1[QLNet.Schedule]/34181910</v>
+      </c>
+      <c r="X37" t="str">
+        <v>Mat5/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/35567111</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>priceday/Cephei.Cell.Generic.CellFast`1[QLNet.Date]/25474675</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <v>FlatYield3/Cephei.QL.FlatForwardModel/51810644</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <v>Fac1/Cephei.Cell.Generic.CellFast`1[System.Double]/35236192</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <v>Mat3FreqS/Cephei.QL.ScheduleModel/63642613</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <v>dayCount/Cephei.QL.ActualActualModel1/36963566</v>
+      </c>
+      <c r="B41" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C41" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D41" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/50605833</v>
+      </c>
+      <c r="E41" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/5376733</v>
+      </c>
+      <c r="F41" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/53760061</v>
+      </c>
+      <c r="G41" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/17497334</v>
+      </c>
+      <c r="H41" t="str">
+        <v>-Bond1/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/16023056</v>
+      </c>
+      <c r="I41" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/24914721</v>
+      </c>
+      <c r="J41" t="str">
+        <v>FlatYield1/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/40041277</v>
+      </c>
+      <c r="K41" t="str">
+        <v>FlatYield3/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/55196503</v>
+      </c>
+      <c r="L41" t="str">
+        <v>FlatYield2/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/27006480</v>
+      </c>
+      <c r="M41" t="str">
+        <v>FlatYield4/Cephei.Cell.Generic.CellFast`1[QLNet.FlatForward]/22118023</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <v>Mat3FreqA/Cephei.QL.ScheduleModel/35912612</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <v>Fac2/Cephei.Cell.Generic.CellFast`1[System.Double]/12611187</v>
+      </c>
+      <c r="B43" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/34122202</v>
+      </c>
+      <c r="C43" t="str">
+        <v>-Bond2/Cephei.Cell.Generic.CellFast`1[QLNet.FixedRateBond]/55134641</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>